--- a/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
+++ b/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40DE219-FCC0-42B2-B07C-4B3A11FA0DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C1C878-E9BE-4109-AB5B-B7DE84DD4C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -321,6 +321,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,22 +663,22 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="48.1796875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -689,7 +690,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -713,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -733,7 +734,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -755,7 +756,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -779,7 +780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -801,29 +802,29 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
